--- a/teaching/traditional_assets/database/data/jordan/jordan_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/jordan/jordan_metals_mining.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.07119999999999999</v>
+        <v>-0.1182</v>
       </c>
       <c r="G2">
-        <v>0.07809145129224652</v>
+        <v>0.03160595177013854</v>
       </c>
       <c r="H2">
-        <v>0.07809145129224652</v>
+        <v>0.03160595177013854</v>
       </c>
       <c r="I2">
-        <v>-0.02910536779324056</v>
+        <v>-0.027603899435608</v>
       </c>
       <c r="J2">
-        <v>-0.02910536779324056</v>
+        <v>-0.027603899435608</v>
       </c>
       <c r="K2">
-        <v>-1.067</v>
+        <v>-0.663</v>
       </c>
       <c r="L2">
-        <v>-0.04242544731610338</v>
+        <v>-0.03401744484350949</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,73 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0.5580000000000001</v>
+        <v>1.881</v>
       </c>
       <c r="V2">
-        <v>0.02676258992805755</v>
+        <v>0.07464285714285714</v>
       </c>
       <c r="W2">
-        <v>-0.03335768500948767</v>
+        <v>-0.02188679245283019</v>
       </c>
       <c r="X2">
-        <v>0.1637469277573493</v>
+        <v>0.08805005011870837</v>
       </c>
       <c r="Y2">
-        <v>-0.1971046127668369</v>
+        <v>-0.1099368425715386</v>
       </c>
       <c r="Z2">
-        <v>0.6626617131715542</v>
+        <v>0.5487822047022385</v>
       </c>
       <c r="AA2">
-        <v>-0.01928837501576891</v>
+        <v>-0.01543540199193816</v>
       </c>
       <c r="AB2">
-        <v>0.1304663344351122</v>
+        <v>0.08577291036330373</v>
       </c>
       <c r="AC2">
-        <v>-0.1497547094508812</v>
+        <v>-0.1012083123552419</v>
       </c>
       <c r="AD2">
-        <v>6.390000000000001</v>
+        <v>1.367</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>6.390000000000001</v>
+        <v>1.367</v>
       </c>
       <c r="AG2">
-        <v>5.832000000000001</v>
+        <v>-0.514</v>
       </c>
       <c r="AH2">
-        <v>0.2345814977973568</v>
+        <v>0.05145481236119998</v>
       </c>
       <c r="AI2">
-        <v>0.17135961383749</v>
+        <v>0.0434423364159278</v>
       </c>
       <c r="AJ2">
-        <v>0.2185743197661345</v>
+        <v>-0.02082151826946447</v>
       </c>
       <c r="AK2">
-        <v>0.1587716432538386</v>
+        <v>-0.01737308186304333</v>
       </c>
       <c r="AL2">
-        <v>0.391</v>
+        <v>0.141</v>
       </c>
       <c r="AM2">
-        <v>0.357</v>
+        <v>0.106</v>
       </c>
       <c r="AN2">
-        <v>8.407894736842106</v>
+        <v>2.939784946236559</v>
       </c>
       <c r="AO2">
-        <v>-1.872122762148337</v>
+        <v>-3.815602836879433</v>
       </c>
       <c r="AP2">
-        <v>7.673684210526317</v>
+        <v>-1.105376344086021</v>
       </c>
       <c r="AQ2">
-        <v>-2.050420168067227</v>
+        <v>-5.075471698113208</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +719,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.04969999999999999</v>
+        <v>-0.08539999999999999</v>
       </c>
       <c r="G3">
-        <v>0.07792207792207792</v>
+        <v>0.07007692307692308</v>
       </c>
       <c r="H3">
-        <v>0.07792207792207792</v>
+        <v>0.07007692307692308</v>
       </c>
       <c r="I3">
-        <v>-0.02123376623376623</v>
+        <v>-0.008384615384615384</v>
       </c>
       <c r="J3">
-        <v>-0.02123376623376623</v>
+        <v>-0.008384615384615384</v>
       </c>
       <c r="K3">
-        <v>-0.373</v>
+        <v>-0.113</v>
       </c>
       <c r="L3">
-        <v>-0.02422077922077922</v>
+        <v>-0.008692307692307692</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +761,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0.167</v>
+        <v>1.53</v>
       </c>
       <c r="V3">
-        <v>0.01050314465408805</v>
+        <v>0.1141791044776119</v>
       </c>
       <c r="W3">
-        <v>-0.02194117647058823</v>
+        <v>-0.007106918238993711</v>
       </c>
       <c r="X3">
-        <v>0.138568620633488</v>
+        <v>0.08473951293888962</v>
       </c>
       <c r="Y3">
-        <v>-0.1605097971040763</v>
+        <v>-0.09184643117788333</v>
       </c>
       <c r="Z3">
-        <v>0.8109958396966664</v>
+        <v>0.7105766602896967</v>
       </c>
       <c r="AA3">
-        <v>-0.01722049607667597</v>
+        <v>-0.005957911997813611</v>
       </c>
       <c r="AB3">
-        <v>0.1275259271015666</v>
+        <v>0.08465985379923031</v>
       </c>
       <c r="AC3">
-        <v>-0.1447464231782425</v>
+        <v>-0.09061776579704392</v>
       </c>
       <c r="AD3">
-        <v>2.62</v>
+        <v>0.037</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.62</v>
+        <v>0.037</v>
       </c>
       <c r="AG3">
-        <v>2.453</v>
+        <v>-1.493</v>
       </c>
       <c r="AH3">
-        <v>0.1414686825053996</v>
+        <v>0.002753590831286745</v>
       </c>
       <c r="AI3">
-        <v>0.1407089151450054</v>
+        <v>0.00235114697845841</v>
       </c>
       <c r="AJ3">
-        <v>0.1336566228954394</v>
+        <v>-0.1253884269757286</v>
       </c>
       <c r="AK3">
-        <v>0.1329323145288029</v>
+        <v>-0.105089040613782</v>
       </c>
       <c r="AL3">
-        <v>0.123</v>
+        <v>0.052</v>
       </c>
       <c r="AM3">
-        <v>0.089</v>
+        <v>0.01699999999999999</v>
       </c>
       <c r="AN3">
-        <v>3.398184176394293</v>
+        <v>0.07326732673267326</v>
       </c>
       <c r="AO3">
-        <v>-2.658536585365854</v>
+        <v>-2.096153846153846</v>
       </c>
       <c r="AP3">
-        <v>3.181582360570688</v>
+        <v>-2.956435643564356</v>
       </c>
       <c r="AQ3">
-        <v>-3.674157303370787</v>
+        <v>-6.411764705882355</v>
       </c>
     </row>
     <row r="4">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.09269999999999999</v>
+        <v>-0.151</v>
       </c>
       <c r="G4">
-        <v>0.07835897435897436</v>
+        <v>-0.04545454545454545</v>
       </c>
       <c r="H4">
-        <v>0.07835897435897436</v>
+        <v>-0.04545454545454545</v>
       </c>
       <c r="I4">
-        <v>-0.04153846153846154</v>
+        <v>-0.06610169491525424</v>
       </c>
       <c r="J4">
-        <v>-0.04153846153846154</v>
+        <v>-0.06610169491525424</v>
       </c>
       <c r="K4">
-        <v>-0.694</v>
+        <v>-0.55</v>
       </c>
       <c r="L4">
-        <v>-0.07117948717948717</v>
+        <v>-0.08474576271186442</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -889,73 +889,73 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.391</v>
+        <v>0.351</v>
       </c>
       <c r="V4">
-        <v>0.07898989898989899</v>
+        <v>0.0297457627118644</v>
       </c>
       <c r="W4">
-        <v>-0.0447741935483871</v>
+        <v>-0.03666666666666667</v>
       </c>
       <c r="X4">
-        <v>0.1889252348812105</v>
+        <v>0.09136058729852713</v>
       </c>
       <c r="Y4">
-        <v>-0.2336994284295976</v>
+        <v>-0.1280272539651938</v>
       </c>
       <c r="Z4">
-        <v>0.5141320396540815</v>
+        <v>0.3768873403019745</v>
       </c>
       <c r="AA4">
-        <v>-0.02135625395486185</v>
+        <v>-0.02491289198606272</v>
       </c>
       <c r="AB4">
-        <v>0.1334067417686579</v>
+        <v>0.08688596692737713</v>
       </c>
       <c r="AC4">
-        <v>-0.1547629957235197</v>
+        <v>-0.1117988589134399</v>
       </c>
       <c r="AD4">
-        <v>3.77</v>
+        <v>1.33</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.77</v>
+        <v>1.33</v>
       </c>
       <c r="AG4">
-        <v>3.379</v>
+        <v>0.9790000000000001</v>
       </c>
       <c r="AH4">
-        <v>0.4323394495412844</v>
+        <v>0.1012947448591013</v>
       </c>
       <c r="AI4">
-        <v>0.2019282271023032</v>
+        <v>0.08455181182453909</v>
       </c>
       <c r="AJ4">
-        <v>0.4056909592988354</v>
+        <v>0.07661006338524141</v>
       </c>
       <c r="AK4">
-        <v>0.1848569396575305</v>
+        <v>0.06365823525586839</v>
       </c>
       <c r="AL4">
-        <v>0.268</v>
+        <v>0.089</v>
       </c>
       <c r="AM4">
-        <v>0.268</v>
+        <v>0.089</v>
       </c>
       <c r="AN4">
-        <v>-342.7272727272727</v>
+        <v>-33.25</v>
       </c>
       <c r="AO4">
-        <v>-1.511194029850746</v>
+        <v>-4.820224719101124</v>
       </c>
       <c r="AP4">
-        <v>-307.1818181818182</v>
+        <v>-24.475</v>
       </c>
       <c r="AQ4">
-        <v>-1.511194029850746</v>
+        <v>-4.820224719101124</v>
       </c>
     </row>
   </sheetData>
